--- a/data/trans_dic/P1409-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1409-Estudios-trans_dic.xlsx
@@ -655,7 +655,7 @@
         <v>0.04466124155833126</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.06066519486933805</v>
+        <v>0.06066519486933806</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.02920991022400305</v>
@@ -664,7 +664,7 @@
         <v>0.03885834393850856</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.05551331828119491</v>
+        <v>0.0555133182811949</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0170037512179784</v>
+        <v>0.0166998655215984</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02096759660375797</v>
+        <v>0.02060510971026996</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03378103364083488</v>
+        <v>0.0328756676967342</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02211887563783184</v>
+        <v>0.02218178135612909</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03191219953484992</v>
+        <v>0.03161347023555959</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04838704559529015</v>
+        <v>0.04865857257751078</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02281359815526459</v>
+        <v>0.02254592725718349</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02989599068876437</v>
+        <v>0.03061838161689431</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04521176324933849</v>
+        <v>0.04694094009991625</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03740519750891178</v>
+        <v>0.03793640871995774</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04399980952089994</v>
+        <v>0.04385294696615336</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06516274717387041</v>
+        <v>0.06757575742315722</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.042303044270789</v>
+        <v>0.04217534744407725</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05933036417519579</v>
+        <v>0.05987969883007625</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07424417950567289</v>
+        <v>0.07443502440529505</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03765931169987564</v>
+        <v>0.03781573422399861</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05016555931100331</v>
+        <v>0.0491337711246301</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06474737226771032</v>
+        <v>0.06719905858461736</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01127908140984667</v>
+        <v>0.0117163937534363</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01863585817597941</v>
+        <v>0.019382965929337</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02664143067762922</v>
+        <v>0.02621631098841221</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01668459846127137</v>
+        <v>0.01728008334460028</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03068113124510213</v>
+        <v>0.02982457349461244</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03611139741449183</v>
+        <v>0.03630816170388353</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01492396964131677</v>
+        <v>0.01595695703317889</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02643735043388444</v>
+        <v>0.02620314193687016</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03336698607656999</v>
+        <v>0.0340133397922284</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02303421801630049</v>
+        <v>0.02260847995382171</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03405436532714366</v>
+        <v>0.03341888571330753</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.048459382379872</v>
+        <v>0.04615813688343257</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03136514787756284</v>
+        <v>0.03251740505366636</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04670193612554111</v>
+        <v>0.04737609063417807</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05252136056351964</v>
+        <v>0.05252097854061664</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02466150253822524</v>
+        <v>0.02486669098837268</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03761452263582075</v>
+        <v>0.03717457048585063</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0461824250176998</v>
+        <v>0.04686217229146791</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.01771451814153092</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.04058501538945458</v>
+        <v>0.04058501538945457</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.02717439645356125</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.006506235856605595</v>
+        <v>0.007781318963123478</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.007351578894191928</v>
+        <v>0.007921417528259138</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02691447985203212</v>
+        <v>0.02511659753152598</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01538252450151445</v>
+        <v>0.01480140735723319</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02401337163639298</v>
+        <v>0.02312559325064125</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0326183465576385</v>
+        <v>0.03309603793229423</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01351511820801433</v>
+        <v>0.01309236742576763</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0187450612515432</v>
+        <v>0.01891998146645084</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03329465762107862</v>
+        <v>0.03239512216501295</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03594815330000629</v>
+        <v>0.03723287354148516</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03492109677998358</v>
+        <v>0.0356189327347863</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06431231467902512</v>
+        <v>0.06331516754780002</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0450719871424782</v>
+        <v>0.04673428434617998</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05784236638756232</v>
+        <v>0.05623799348631871</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05831352877145809</v>
+        <v>0.05834843622171831</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03268485341931547</v>
+        <v>0.03419644051226318</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03885101223487003</v>
+        <v>0.03854395610702165</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05505428751640513</v>
+        <v>0.05507296991294328</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.02551641365418493</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.03847470060335032</v>
+        <v>0.03847470060335031</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.02709431298980909</v>
@@ -991,7 +991,7 @@
         <v>0.03275282450887932</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.04323480832073315</v>
+        <v>0.04323480832073316</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01485577372093266</v>
+        <v>0.01472797467748378</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02088889342140587</v>
+        <v>0.02052115894468417</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03167519192213158</v>
+        <v>0.03153542654119714</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0217254346976847</v>
+        <v>0.02198909796096003</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.033536777160443</v>
+        <v>0.03395333726222259</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04227393849485557</v>
+        <v>0.04253811845923239</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01938604816731437</v>
+        <v>0.01950025910496852</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02827823282285715</v>
+        <v>0.02864503717818512</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03895343534676189</v>
+        <v>0.03841692360270121</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02442974669098139</v>
+        <v>0.02474024385116023</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03190658723185802</v>
+        <v>0.03116170781666724</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04706176410984312</v>
+        <v>0.04686403489932944</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03309351294433489</v>
+        <v>0.03354796523475112</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04659225113166771</v>
+        <v>0.04789386932306138</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05435718000932839</v>
+        <v>0.05395494682975887</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02716369814659617</v>
+        <v>0.02685817324586175</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03712584018943144</v>
+        <v>0.03776412517235204</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0484598955341719</v>
+        <v>0.04888356275577337</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>16573</v>
+        <v>16276</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>15817</v>
+        <v>15543</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>19463</v>
+        <v>18941</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>29564</v>
+        <v>29648</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>31742</v>
+        <v>31445</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>39652</v>
+        <v>39875</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>52728</v>
+        <v>52109</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>52288</v>
+        <v>53552</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>63099</v>
+        <v>65512</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>36457</v>
+        <v>36974</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>33191</v>
+        <v>33080</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>37543</v>
+        <v>38933</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>56543</v>
+        <v>56372</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>59014</v>
+        <v>59560</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>60842</v>
+        <v>60998</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>87040</v>
+        <v>87402</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>87740</v>
+        <v>85935</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>90363</v>
+        <v>93785</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>22152</v>
+        <v>23010</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>38695</v>
+        <v>40246</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>59376</v>
+        <v>58429</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>29275</v>
+        <v>30319</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>61003</v>
+        <v>59300</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>78349</v>
+        <v>78776</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>55496</v>
+        <v>59337</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>107460</v>
+        <v>106508</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>146760</v>
+        <v>149603</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>45238</v>
+        <v>44402</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>70710</v>
+        <v>69390</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>108002</v>
+        <v>102873</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>55033</v>
+        <v>57055</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>92857</v>
+        <v>94198</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>113953</v>
+        <v>113952</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>91705</v>
+        <v>92468</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>152891</v>
+        <v>151103</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>203127</v>
+        <v>206117</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3131</v>
+        <v>3744</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4020</v>
+        <v>4332</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>19152</v>
+        <v>17873</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>7055</v>
+        <v>6788</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>13187</v>
+        <v>12699</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>23933</v>
+        <v>24284</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>12702</v>
+        <v>12304</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>20545</v>
+        <v>20737</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>48122</v>
+        <v>46822</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>17298</v>
+        <v>17916</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>19098</v>
+        <v>19479</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>45764</v>
+        <v>45054</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>20671</v>
+        <v>21434</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>31764</v>
+        <v>30883</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>42787</v>
+        <v>42813</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>30718</v>
+        <v>32138</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>42582</v>
+        <v>42245</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>79571</v>
+        <v>79598</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>50804</v>
+        <v>50366</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>70555</v>
+        <v>69313</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>111384</v>
+        <v>110892</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>77122</v>
+        <v>78058</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>118455</v>
+        <v>119927</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>157381</v>
+        <v>158364</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>135113</v>
+        <v>135909</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>195395</v>
+        <v>197929</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>281996</v>
+        <v>278112</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>83544</v>
+        <v>84606</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>107768</v>
+        <v>105252</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>165490</v>
+        <v>164795</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>117477</v>
+        <v>119090</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>164568</v>
+        <v>169166</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>202365</v>
+        <v>200868</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>189321</v>
+        <v>187191</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>256529</v>
+        <v>260939</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>350816</v>
+        <v>353883</v>
       </c>
     </row>
     <row r="20">
